--- a/Base/Teams/Panthers/Players Data.xlsx
+++ b/Base/Teams/Panthers/Players Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Panthers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C8FCB10E0203968A0F0BB6B4F5EA4577E132D7AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7923BFD-37AD-45AF-B1F9-9CD627BEB227}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -107,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,14 +165,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -225,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,27 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,24 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,16 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -536,19 +484,19 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
       <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -556,10 +504,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -568,29 +516,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -608,29 +556,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -648,9 +596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -668,9 +616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -688,9 +636,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -714,16 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,9 +692,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -772,9 +718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -798,18 +744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -818,30 +764,30 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -850,24 +796,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -876,9 +822,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -902,21 +848,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -928,9 +874,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -954,9 +900,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -980,9 +926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1006,9 +952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1032,18 +978,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1058,15 +1004,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -1084,9 +1030,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>

--- a/Base/Teams/Panthers/Players Data.xlsx
+++ b/Base/Teams/Panthers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
     <t>A.Abdullah</t>
   </si>
   <si>
+    <t>R.Anderson</t>
+  </si>
+  <si>
     <t>Dj.Moore</t>
   </si>
   <si>
@@ -75,9 +78,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>R.Anderson</t>
   </si>
   <si>
     <t>T.Marshall</t>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,16 +484,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,13 +524,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -564,10 +564,10 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>11</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -584,16 +584,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -604,13 +604,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -644,15 +644,35 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -674,22 +694,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -700,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -752,16 +772,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -775,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>18</v>
@@ -790,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -801,22 +821,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>14</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -830,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -856,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -868,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -879,7 +899,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -940,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -983,16 +1003,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1009,13 +1029,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>3</v>

--- a/Base/Teams/Panthers/Players Data.xlsx
+++ b/Base/Teams/Panthers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +38,9 @@
     <t>P.Walker</t>
   </si>
   <si>
+    <t>S.Darnold</t>
+  </si>
+  <si>
     <t>C.Hubbard</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>A.Abdullah</t>
+  </si>
+  <si>
+    <t>R.Bonnafon</t>
   </si>
   <si>
     <t>R.Anderson</t>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,16 +490,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,16 +530,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,16 +550,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -564,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -584,16 +590,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -607,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -624,16 +630,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -644,16 +650,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -664,15 +670,55 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -683,7 +729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -694,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -717,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -743,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -769,25 +815,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -795,25 +841,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -821,25 +867,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -847,25 +893,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -873,10 +919,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
         <v>22</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
       </c>
       <c r="D8">
         <v>14</v>
@@ -885,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -899,25 +945,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -925,25 +971,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -951,22 +997,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -977,16 +1023,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1003,25 +1049,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1029,25 +1075,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1055,24 +1101,50 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Panthers/Players Data.xlsx
+++ b/Base/Teams/Panthers/Players Data.xlsx
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -530,13 +530,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -766,10 +766,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -818,10 +818,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -830,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -870,10 +870,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>21</v>
@@ -896,16 +896,16 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -922,10 +922,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -974,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1104,16 +1104,16 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>4</v>

--- a/Base/Teams/Panthers/Players Data.xlsx
+++ b/Base/Teams/Panthers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>A.Erickson</t>
+  </si>
+  <si>
+    <t>C.Saunders</t>
   </si>
   <si>
     <t>C.Thompson</t>
@@ -530,16 +533,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -550,10 +553,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -590,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -656,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -690,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -699,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -729,7 +732,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -778,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -818,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -830,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>5</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -870,22 +873,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -896,19 +899,19 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D7">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -948,13 +951,13 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -1000,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1075,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1101,25 +1104,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1127,24 +1130,50 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
     </row>
